--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -65,9 +65,6 @@
     <t>Operation</t>
   </si>
   <si>
-    <t>Webtable validated successfully</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>tchangepond899536@gmail.com</t>
+  </si>
+  <si>
+    <t>WebTable Validated successfully</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -545,24 +545,24 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -577,42 +577,42 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +626,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,13 +685,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -706,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -717,13 +717,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -738,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -749,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -770,10 +770,10 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -781,13 +781,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -802,24 +802,24 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -834,24 +834,24 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -866,24 +866,24 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -898,106 +898,106 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddUser" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="38">
   <si>
     <t>NAME</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Operation</t>
   </si>
   <si>
+    <t>Webtable validated successfully</t>
+  </si>
+  <si>
     <t>Add</t>
   </si>
   <si>
@@ -110,7 +113,22 @@
     <t>tchangepond899536@gmail.com</t>
   </si>
   <si>
-    <t>WebTable Validated successfully</t>
+    <t>User_TC004</t>
+  </si>
+  <si>
+    <t>autoshipeer001@gmail.com</t>
+  </si>
+  <si>
+    <t>ACCEPT INVITE</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>Recod not found</t>
+  </si>
+  <si>
+    <t>User_TC005</t>
   </si>
 </sst>
 </file>
@@ -462,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -545,24 +563,24 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -577,42 +595,74 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -623,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,13 +735,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -706,10 +756,10 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -717,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -738,10 +788,10 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -749,13 +799,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -770,10 +820,10 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -781,13 +831,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -802,24 +852,24 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -834,24 +884,24 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -866,24 +916,24 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -898,106 +948,202 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="AddUser" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="37">
   <si>
     <t>NAME</t>
   </si>
@@ -113,9 +113,6 @@
     <t>tchangepond899536@gmail.com</t>
   </si>
   <si>
-    <t>User_TC004</t>
-  </si>
-  <si>
     <t>autoshipeer001@gmail.com</t>
   </si>
   <si>
@@ -125,10 +122,10 @@
     <t>SELECT</t>
   </si>
   <si>
-    <t>Recod not found</t>
-  </si>
-  <si>
     <t>User_TC005</t>
+  </si>
+  <si>
+    <t>User_TC004A</t>
   </si>
 </sst>
 </file>
@@ -482,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -635,7 +632,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -675,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +959,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -994,7 +991,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -1012,7 +1009,7 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -1026,7 +1023,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -1044,7 +1041,7 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -1058,7 +1055,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -1076,21 +1073,21 @@
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1108,7 +1105,7 @@
         <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1116,13 +1113,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -1140,10 +1137,10 @@
         <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddUser" sheetId="2" r:id="rId1"/>
-    <sheet name="UsersGrid" sheetId="1" r:id="rId2"/>
+    <sheet name="CustomizeGrid" sheetId="3" r:id="rId2"/>
+    <sheet name="UsersGrid" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="41">
   <si>
     <t>NAME</t>
   </si>
@@ -126,6 +127,18 @@
   </si>
   <si>
     <t>User_TC004A</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Actua lResult</t>
+  </si>
+  <si>
+    <t>Webtable customized successfully</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -479,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -669,6 +682,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AddUser" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="54">
   <si>
     <t>NAME</t>
   </si>
@@ -138,7 +138,46 @@
     <t>Webtable customized successfully</t>
   </si>
   <si>
-    <t>All</t>
+    <t>User_TC006</t>
+  </si>
+  <si>
+    <t>AutoShipper002</t>
+  </si>
+  <si>
+    <t>autoshipeer002@gmail.com</t>
+  </si>
+  <si>
+    <t>Autoshipeer002@gmail.com</t>
+  </si>
+  <si>
+    <t>Shipper User</t>
+  </si>
+  <si>
+    <t>User_TC007</t>
+  </si>
+  <si>
+    <t>User_TC008</t>
+  </si>
+  <si>
+    <t>AutoShipperAdmin002</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>User_TC009</t>
+  </si>
+  <si>
+    <t>AutoDriver001</t>
+  </si>
+  <si>
+    <t>AutoDriver001@gmail.com</t>
+  </si>
+  <si>
+    <t>Driver (Full)</t>
+  </si>
+  <si>
+    <t>CHANGEPOND</t>
   </si>
 </sst>
 </file>
@@ -490,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +714,134 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -683,9 +850,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -724,9 +891,65 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -737,10 +960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +972,7 @@
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -1210,6 +1434,518 @@
         <v>24</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="58">
   <si>
     <t>NAME</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>CHANGEPOND</t>
+  </si>
+  <si>
+    <t>Carrier_TC001</t>
+  </si>
+  <si>
+    <t>AutomationTest12</t>
+  </si>
+  <si>
+    <t>changepondtest10@yahoo.com</t>
+  </si>
+  <si>
+    <t>Karthik</t>
   </si>
 </sst>
 </file>
@@ -850,9 +862,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -953,6 +967,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -960,10 +988,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +1002,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -1946,6 +1974,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddUser" sheetId="2" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>AutoShipperAdmin002</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>User_TC009</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Karthik</t>
+  </si>
+  <si>
+    <t>Name;Email Address;Phone Number;Role;Carrier;Shipper;Invitation</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,22 +824,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -916,10 +916,10 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -930,10 +930,10 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -944,10 +944,10 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,22 +1848,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>53</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
@@ -1880,22 +1880,22 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>52</v>
-      </c>
-      <c r="F28" t="s">
-        <v>53</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -1912,22 +1912,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>52</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -1944,22 +1944,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>52</v>
-      </c>
-      <c r="F30" t="s">
-        <v>53</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -1991,7 +1991,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AddUser" sheetId="2" r:id="rId1"/>
@@ -186,10 +186,10 @@
     <t>changepondtest10@yahoo.com</t>
   </si>
   <si>
-    <t>Karthik</t>
-  </si>
-  <si>
     <t>Name;Email Address;Phone Number;Role;Carrier;Shipper;Invitation</t>
+  </si>
+  <si>
+    <t>Karthikeyan</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -902,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -916,7 +916,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -930,7 +930,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -944,7 +944,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -958,7 +958,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -972,7 +972,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +1979,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddUser" sheetId="2" r:id="rId1"/>
@@ -186,10 +186,10 @@
     <t>changepondtest10@yahoo.com</t>
   </si>
   <si>
-    <t>Name;Email Address;Phone Number;Role;Carrier;Shipper;Invitation</t>
-  </si>
-  <si>
     <t>Karthikeyan</t>
+  </si>
+  <si>
+    <t>Email Address;Name;Phone Number;Role;Carrier;Shipper;Invitation</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -916,7 +916,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -930,7 +930,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -944,7 +944,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -958,7 +958,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -972,7 +972,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -990,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1979,7 +1979,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="AddUser" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="79">
   <si>
     <t>NAME</t>
   </si>
@@ -190,13 +190,76 @@
   </si>
   <si>
     <t>Email Address;Name;Phone Number;Role;Carrier;Shipper;Invitation</t>
+  </si>
+  <si>
+    <t>User_TC010</t>
+  </si>
+  <si>
+    <t>Unable to send user invitation</t>
+  </si>
+  <si>
+    <t>User_TC010(2)</t>
+  </si>
+  <si>
+    <t>AutoDriver010</t>
+  </si>
+  <si>
+    <t>Either phone or email is required</t>
+  </si>
+  <si>
+    <t>User_TC010(3)</t>
+  </si>
+  <si>
+    <t>Role is required</t>
+  </si>
+  <si>
+    <t>User_TC010(4)</t>
+  </si>
+  <si>
+    <t>AutoDriver010@gmail.com</t>
+  </si>
+  <si>
+    <t>Carrier is required</t>
+  </si>
+  <si>
+    <t>Shipper is required</t>
+  </si>
+  <si>
+    <t>User_TC011(2)</t>
+  </si>
+  <si>
+    <t>User_TC011</t>
+  </si>
+  <si>
+    <t>User_TC011(3)</t>
+  </si>
+  <si>
+    <t>User_TC011(4)</t>
+  </si>
+  <si>
+    <t>AutoShipperAdmin010</t>
+  </si>
+  <si>
+    <t>Driver (Limited)</t>
+  </si>
+  <si>
+    <t>User_TC010(5)</t>
+  </si>
+  <si>
+    <t>User_TC010(6)</t>
+  </si>
+  <si>
+    <t>Shipper user</t>
+  </si>
+  <si>
+    <t>User_TC011(5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +274,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,10 +302,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,22 +611,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -852,6 +922,358 @@
       </c>
       <c r="J9" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +1391,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -978,6 +1400,20 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
     </row>

--- a/TestData/Users.xlsx
+++ b/TestData/Users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="78">
   <si>
     <t>NAME</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Carrier is required</t>
   </si>
   <si>
-    <t>Shipper is required</t>
-  </si>
-  <si>
     <t>User_TC011(2)</t>
   </si>
   <si>
@@ -249,17 +246,17 @@
     <t>User_TC010(6)</t>
   </si>
   <si>
-    <t>Shipper user</t>
-  </si>
-  <si>
     <t>User_TC011(5)</t>
+  </si>
+  <si>
+    <t>Name is required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +278,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,16 +304,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,7 +622,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1062,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -1066,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1086,7 +1094,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -1118,7 +1126,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1145,15 +1153,15 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -1182,10 +1190,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -1214,19 +1222,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1240,16 +1248,16 @@
       <c r="I19" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>68</v>
+      <c r="J19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -1258,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1272,13 +1280,16 @@
       <c r="I20" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>68</v>
+      <c r="J20" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
